--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_config_test_ni_config_router_id_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_config_test_ni_config_router_id_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:bd6864a7-1c11-4e8a-95b4-78e5c3af3b5f"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:83d9f7a2-9390-445c-b5f0-1efeaa73662a"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
